--- a/Baby App Pics and Sounds.xlsx
+++ b/Baby App Pics and Sounds.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tedyoung\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-hub\BabyApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
   <si>
     <t xml:space="preserve">        Animals.Add(new Box("Anteater", "/Assets/Pics/Animals/anteater80x100.png", "/Assets/Pics/Animals/anteater480x800.png", "/Assets/Sounds/Animals/anteater.wav"));</t>
   </si>
@@ -209,9 +209,6 @@
     <t xml:space="preserve">            Animals.Add(new Box("Wolf", "/Assets/Pics/Animals/wolf80x100.png", "/Assets/Pics/Animals/wolf480x800.png", "/Assets/Sounds/Animals/wolf.wav"));</t>
   </si>
   <si>
-    <t xml:space="preserve">            Animals.Add(new Box("", "", "", ""));</t>
-  </si>
-  <si>
     <t>Pic</t>
   </si>
   <si>
@@ -258,6 +255,57 @@
   </si>
   <si>
     <t>rooster</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>not working</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>text does not display, sounds is wrong</t>
+  </si>
+  <si>
+    <t>sound is wrong</t>
+  </si>
+  <si>
+    <t>not great sound</t>
+  </si>
+  <si>
+    <t>voice says name wrong</t>
+  </si>
+  <si>
+    <t>pic not great as portrait</t>
+  </si>
+  <si>
+    <t>quick sound</t>
+  </si>
+  <si>
+    <t>way too quick and not sure what it is a sound of</t>
+  </si>
+  <si>
+    <t>a little short</t>
+  </si>
+  <si>
+    <t>wrong sound</t>
+  </si>
+  <si>
+    <t>too short</t>
+  </si>
+  <si>
+    <t>text does not display, sounds is maybe wrong not sure</t>
+  </si>
+  <si>
+    <t>not sure it is right sound</t>
+  </si>
+  <si>
+    <t>a bit short</t>
+  </si>
+  <si>
+    <t>way too quick</t>
   </si>
 </sst>
 </file>
@@ -578,439 +626,643 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C77"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="167.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="167.86328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C25" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C28" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C30" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C32" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C33" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C34" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C36" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C37" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C42" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C43" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C45" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C46" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C47" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C48" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B49" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C50" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C51" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B52" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C53" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C55" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C56" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C58" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C59" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B60" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C62" s="1" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C65" s="1" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C66" s="1" t="s">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C67" s="1" t="s">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C68" s="1" t="s">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C69" s="1" t="s">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C70" s="1" t="s">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C71" s="1" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C72" s="1" t="s">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C73" s="1" t="s">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C74" s="1" t="s">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C75" s="1" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C76" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C77" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Baby App Pics and Sounds.xlsx
+++ b/Baby App Pics and Sounds.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21713" windowHeight="10268"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21713" windowHeight="10268" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Master" sheetId="1" r:id="rId1"/>
+    <sheet name="Printable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="183">
   <si>
     <t xml:space="preserve">        Animals.Add(new Box("Anteater", "/Assets/Pics/Animals/anteater80x100.png", "/Assets/Pics/Animals/anteater480x800.png", "/Assets/Sounds/Animals/anteater.wav"));</t>
   </si>
@@ -570,6 +571,9 @@
   </si>
   <si>
     <t>6 seconds.  Is this a walrus?</t>
+  </si>
+  <si>
+    <t>not going to use</t>
   </si>
 </sst>
 </file>
@@ -928,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73:D74"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A50" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
@@ -3078,4 +3082,1099 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.19921875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <f t="shared" ref="A67:A75" si="1">ROW()-1</f>
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.05" footer="0.05"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Baby App Pics and Sounds.xlsx
+++ b/Baby App Pics and Sounds.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="185">
   <si>
     <t xml:space="preserve">        Animals.Add(new Box("Anteater", "/Assets/Pics/Animals/anteater80x100.png", "/Assets/Pics/Animals/anteater480x800.png", "/Assets/Sounds/Animals/anteater.wav"));</t>
   </si>
@@ -574,6 +574,12 @@
   </si>
   <si>
     <t>not going to use</t>
+  </si>
+  <si>
+    <t>TJY Edited</t>
+  </si>
+  <si>
+    <t>1 second, need longer sound, don’t really like</t>
   </si>
 </sst>
 </file>
@@ -633,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -649,6 +655,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3088,8 +3100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
@@ -3098,14 +3110,15 @@
     <col min="2" max="2" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.06640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -3116,8 +3129,11 @@
       <c r="C2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
         <v>2</v>
@@ -3132,7 +3148,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3144,7 +3160,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3159,7 +3175,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3173,8 +3189,11 @@
       <c r="D6" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E6" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3186,7 +3205,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3201,7 +3220,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3216,7 +3235,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3231,7 +3250,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3245,8 +3264,11 @@
       <c r="D11" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E11" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3258,7 +3280,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3270,7 +3292,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3285,7 +3307,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3297,7 +3319,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3311,8 +3333,11 @@
       <c r="D16" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E16" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3327,7 +3352,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3342,7 +3367,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3356,8 +3381,11 @@
       <c r="D19" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E19" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3372,7 +3400,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3386,8 +3414,11 @@
       <c r="D21" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E21" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3402,7 +3433,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3417,7 +3448,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3432,7 +3463,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3444,7 +3475,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3459,7 +3490,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3471,7 +3502,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3483,7 +3514,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3495,7 +3526,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3510,7 +3541,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3524,8 +3555,11 @@
       <c r="D31" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E31" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3554,6 +3588,9 @@
       <c r="D33" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="E33" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34">
@@ -3584,6 +3621,9 @@
       <c r="D35" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="E35" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36">
@@ -3674,6 +3714,9 @@
       <c r="D41" s="5" t="s">
         <v>166</v>
       </c>
+      <c r="E41" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42">
@@ -3689,7 +3732,7 @@
       <c r="D42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="7" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3705,7 +3748,10 @@
         <v>62</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>163</v>
+        <v>184</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
@@ -3737,7 +3783,7 @@
       <c r="D45" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="7" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3857,7 +3903,7 @@
       <c r="D53" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="7" t="s">
         <v>182</v>
       </c>
     </row>

--- a/Baby App Pics and Sounds.xlsx
+++ b/Baby App Pics and Sounds.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-hub\BabyApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21713" windowHeight="10268" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21721" windowHeight="10276" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="186">
   <si>
     <t xml:space="preserve">        Animals.Add(new Box("Anteater", "/Assets/Pics/Animals/anteater80x100.png", "/Assets/Pics/Animals/anteater480x800.png", "/Assets/Sounds/Animals/anteater.wav"));</t>
   </si>
@@ -580,6 +580,9 @@
   </si>
   <si>
     <t>1 second, need longer sound, don’t really like</t>
+  </si>
+  <si>
+    <t>Use</t>
   </si>
 </sst>
 </file>
@@ -722,7 +725,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -757,7 +760,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -950,11 +953,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.73046875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="2.73046875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.73046875" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="167.86328125" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3098,1128 +3101,1352 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.06640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.06640625" customWidth="1"/>
+    <col min="4" max="4" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.1328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1">
+        <f>ROW()-1</f>
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <f>ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4">
+        <f>ROW()-1</f>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <f>ROW()-1</f>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <f>ROW()-1</f>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <f>ROW()-1</f>
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8">
+        <f>ROW()-1</f>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <f>ROW()-1</f>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10">
+        <f>ROW()-1</f>
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <f>ROW()-1</f>
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <f>ROW()-1</f>
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13">
+        <f>ROW()-1</f>
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14">
+        <f>ROW()-1</f>
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15">
+        <f>ROW()-1</f>
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16">
+        <f>ROW()-1</f>
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17">
+        <f>ROW()-1</f>
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18">
+        <f>ROW()-1</f>
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19">
+        <f>ROW()-1</f>
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20">
+        <f>ROW()-1</f>
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21">
+        <f>ROW()-1</f>
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22">
+        <f>ROW()-1</f>
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23">
+        <f>ROW()-1</f>
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24">
+        <f>ROW()-1</f>
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25">
+        <f>ROW()-1</f>
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <f>ROW()-1</f>
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27">
+        <f>ROW()-1</f>
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28">
+        <f>ROW()-1</f>
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29">
+        <f>ROW()-1</f>
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30">
+        <f>ROW()-1</f>
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31">
+        <f>ROW()-1</f>
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <f>ROW()-1</f>
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33">
+        <f>ROW()-1</f>
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34">
+        <f>ROW()-1</f>
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35">
+        <f>ROW()-1</f>
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36">
+        <f>ROW()-1</f>
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37">
+        <f>ROW()-1</f>
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38">
+        <f>ROW()-1</f>
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39">
+        <f>ROW()-1</f>
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40">
+        <f>ROW()-1</f>
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B41">
+        <f>ROW()-1</f>
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <f>ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42">
+        <f>ROW()-1</f>
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43">
+        <f>ROW()-1</f>
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44">
+        <f>ROW()-1</f>
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45">
+        <f>ROW()-1</f>
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46">
+        <f>ROW()-1</f>
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47">
+        <f>ROW()-1</f>
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48">
+        <f>ROW()-1</f>
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49">
+        <f>ROW()-1</f>
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50">
+        <f>ROW()-1</f>
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51">
+        <f>ROW()-1</f>
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52">
+        <f>ROW()-1</f>
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53">
+        <f>ROW()-1</f>
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54">
+        <f>ROW()-1</f>
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55">
+        <f>ROW()-1</f>
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56">
+        <f>ROW()-1</f>
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57">
+        <f>ROW()-1</f>
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58">
+        <f>ROW()-1</f>
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59">
+        <f>ROW()-1</f>
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60">
+        <f>ROW()-1</f>
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61">
+        <f>ROW()-1</f>
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62">
+        <f>ROW()-1</f>
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63">
+        <f>ROW()-1</f>
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64">
+        <f>ROW()-1</f>
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65">
+        <f>ROW()-1</f>
         <v>64</v>
       </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66">
+        <f>ROW()-1</f>
         <v>65</v>
       </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" t="s">
+        <v>62</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67">
+        <f>ROW()-1</f>
         <v>66</v>
       </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68">
+        <f>ROW()-1</f>
         <v>67</v>
       </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C68" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69">
+        <f>ROW()-1</f>
         <v>68</v>
       </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C69" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70">
+        <f>ROW()-1</f>
         <v>69</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C70" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71">
+        <f>ROW()-1</f>
         <v>70</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C71" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <f>ROW()-1</f>
         <v>71</v>
       </c>
-      <c r="C38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C72" t="s">
+        <v>140</v>
+      </c>
+      <c r="D72" t="s">
+        <v>62</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73">
+        <f>ROW()-1</f>
         <v>72</v>
       </c>
-      <c r="C39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C73" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74">
+        <f>ROW()-1</f>
         <v>73</v>
       </c>
-      <c r="C44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" t="s">
-        <v>62</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>132</v>
-      </c>
-      <c r="C62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" t="s">
-        <v>62</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67">
-        <f t="shared" ref="A67:A75" si="1">ROW()-1</f>
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>137</v>
-      </c>
-      <c r="C67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>139</v>
-      </c>
-      <c r="C69" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" t="s">
-        <v>62</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>142</v>
-      </c>
-      <c r="C72" t="s">
-        <v>62</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A73">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="C74" t="s">
         <v>143</v>
       </c>
-      <c r="C73" t="s">
-        <v>62</v>
-      </c>
-      <c r="D73" s="5" t="s">
+      <c r="D74" t="s">
+        <v>62</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A74">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>144</v>
-      </c>
-      <c r="C74" t="s">
-        <v>62</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A75">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>145</v>
-      </c>
-      <c r="C75" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A1:F75">
+    <sortCondition descending="1" ref="A1:A75"/>
+    <sortCondition ref="C1:C75"/>
+  </sortState>
   <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.05" footer="0.05"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Baby App Pics and Sounds.xlsx
+++ b/Baby App Pics and Sounds.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="187">
   <si>
     <t xml:space="preserve">        Animals.Add(new Box("Anteater", "/Assets/Pics/Animals/anteater80x100.png", "/Assets/Pics/Animals/anteater480x800.png", "/Assets/Sounds/Animals/anteater.wav"));</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>Use</t>
+  </si>
+  <si>
+    <t>no pic</t>
   </si>
 </sst>
 </file>
@@ -3101,17 +3104,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="3.19921875" customWidth="1"/>
     <col min="3" max="3" width="11.06640625" customWidth="1"/>
-    <col min="4" max="4" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.1328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -3422,7 +3425,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -3443,7 +3446,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -3464,7 +3467,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -3482,9 +3485,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B20">
         <f>ROW()-1</f>
@@ -3499,8 +3502,11 @@
       <c r="F20" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -3518,9 +3524,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B22">
         <f>ROW()-1</f>
@@ -3535,8 +3541,11 @@
       <c r="F22" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -3554,7 +3563,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -3575,7 +3584,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -3596,7 +3605,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -3614,7 +3623,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -3632,7 +3641,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -3650,7 +3659,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -3668,7 +3677,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -3685,8 +3694,11 @@
       <c r="F30" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -3704,7 +3716,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -3722,7 +3734,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -3740,7 +3752,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -3760,8 +3772,11 @@
       <c r="F34" s="4" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -3779,7 +3794,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -3797,7 +3812,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -3815,7 +3830,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -3833,7 +3848,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -3851,7 +3866,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -3869,7 +3884,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -3887,7 +3902,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -3902,7 +3917,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -3917,7 +3932,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -3935,7 +3950,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -3950,7 +3965,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -3965,7 +3980,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -3980,7 +3995,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>77</v>
       </c>

--- a/Baby App Pics and Sounds.xlsx
+++ b/Baby App Pics and Sounds.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="205">
   <si>
     <t xml:space="preserve">        Animals.Add(new Box("Anteater", "/Assets/Pics/Animals/anteater80x100.png", "/Assets/Pics/Animals/anteater480x800.png", "/Assets/Sounds/Animals/anteater.wav"));</t>
   </si>
@@ -586,13 +586,67 @@
   </si>
   <si>
     <t>no pic</t>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>alligator</t>
+  </si>
+  <si>
+    <t>camel</t>
+  </si>
+  <si>
+    <t>crocodile</t>
+  </si>
+  <si>
+    <t>deer</t>
+  </si>
+  <si>
+    <t>frog</t>
+  </si>
+  <si>
+    <t>donkey</t>
+  </si>
+  <si>
+    <t>llama</t>
+  </si>
+  <si>
+    <t>lynx</t>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <t>polar bear</t>
+  </si>
+  <si>
+    <t>seagull</t>
+  </si>
+  <si>
+    <t>sealion</t>
+  </si>
+  <si>
+    <t>turkey</t>
+  </si>
+  <si>
+    <t>good sound</t>
+  </si>
+  <si>
+    <t>soso</t>
+  </si>
+  <si>
+    <t>need better pic</t>
+  </si>
+  <si>
+    <t>no sound</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,6 +678,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -645,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -662,10 +730,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3104,1363 +3189,1636 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="3.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.06640625" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" style="6"/>
+    <col min="2" max="2" width="3.19921875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.1328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1">
-        <f>ROW()-1</f>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="6">
+        <f t="shared" ref="B1:B90" si="0">ROW()-1</f>
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="9">
+        <f t="shared" ref="B2:B33" si="1">ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2">
-        <f>ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3">
-        <f>ROW()-1</f>
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="6" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="D6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4">
-        <f>ROW()-1</f>
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="9">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="D12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5">
-        <f>ROW()-1</f>
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="I12" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="D13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6">
-        <f>ROW()-1</f>
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="I13" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="D14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7">
-        <f>ROW()-1</f>
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="D15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8">
-        <f>ROW()-1</f>
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="9">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="9">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="9">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="D19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9">
-        <f>ROW()-1</f>
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="20" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="9">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="D20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10">
-        <f>ROW()-1</f>
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="21" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="9">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="9">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="D23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11">
-        <f>ROW()-1</f>
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="24" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="9">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="D24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12">
-        <f>ROW()-1</f>
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="25" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="9">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="D25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13">
-        <f>ROW()-1</f>
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="26" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="9">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="D26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14">
-        <f>ROW()-1</f>
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="6">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="6">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="9">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="6">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="6">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="D31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15">
-        <f>ROW()-1</f>
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="6">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="6">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="6">
+        <f t="shared" ref="B34:B63" si="2">ROW()-1</f>
+        <v>33</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="9">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="D35" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16">
-        <f>ROW()-1</f>
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="36" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="9">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="D36" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17">
-        <f>ROW()-1</f>
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="6">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="9">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="D38" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="6">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18">
-        <f>ROW()-1</f>
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="40" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="9">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="D40" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19">
-        <f>ROW()-1</f>
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="41" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="9">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="D41" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20">
-        <f>ROW()-1</f>
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="6">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="D42" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G42" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21">
-        <f>ROW()-1</f>
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B43" s="6">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="9">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="D44" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22">
-        <f>ROW()-1</f>
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="6">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="D45" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G45" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23">
-        <f>ROW()-1</f>
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="46" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="9">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24">
-        <f>ROW()-1</f>
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D46" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="9">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B48" s="6">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="9">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="D49" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25">
-        <f>ROW()-1</f>
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="6">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="9">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="D51" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26">
-        <f>ROW()-1</f>
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="6">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="6">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="6">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="9">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="D55" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27">
-        <f>ROW()-1</f>
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="6">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="9">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="D57" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28">
-        <f>ROW()-1</f>
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="6">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="6">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="9">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="D60" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29">
-        <f>ROW()-1</f>
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="61" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="9">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="D61" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30">
-        <f>ROW()-1</f>
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G30" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31">
-        <f>ROW()-1</f>
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32">
-        <f>ROW()-1</f>
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33">
-        <f>ROW()-1</f>
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34">
-        <f>ROW()-1</f>
-        <v>33</v>
-      </c>
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35">
-        <f>ROW()-1</f>
-        <v>34</v>
-      </c>
-      <c r="C35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36">
-        <f>ROW()-1</f>
-        <v>35</v>
-      </c>
-      <c r="C36" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37">
-        <f>ROW()-1</f>
-        <v>36</v>
-      </c>
-      <c r="C37" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38">
-        <f>ROW()-1</f>
-        <v>37</v>
-      </c>
-      <c r="C38" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39">
-        <f>ROW()-1</f>
-        <v>38</v>
-      </c>
-      <c r="C39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40">
-        <f>ROW()-1</f>
-        <v>39</v>
-      </c>
-      <c r="C40" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>185</v>
-      </c>
-      <c r="B41">
-        <f>ROW()-1</f>
-        <v>40</v>
-      </c>
-      <c r="C41" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42">
-        <f>ROW()-1</f>
-        <v>41</v>
-      </c>
-      <c r="C42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43">
-        <f>ROW()-1</f>
-        <v>42</v>
-      </c>
-      <c r="C43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44">
-        <f>ROW()-1</f>
-        <v>43</v>
-      </c>
-      <c r="C44" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45">
-        <f>ROW()-1</f>
-        <v>44</v>
-      </c>
-      <c r="C45" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46">
-        <f>ROW()-1</f>
-        <v>45</v>
-      </c>
-      <c r="C46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47">
-        <f>ROW()-1</f>
-        <v>46</v>
-      </c>
-      <c r="C47" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48">
-        <f>ROW()-1</f>
-        <v>47</v>
-      </c>
-      <c r="C48" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49">
-        <f>ROW()-1</f>
-        <v>48</v>
-      </c>
-      <c r="C49" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" t="s">
-        <v>62</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50">
-        <f>ROW()-1</f>
-        <v>49</v>
-      </c>
-      <c r="C50" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51">
-        <f>ROW()-1</f>
-        <v>50</v>
-      </c>
-      <c r="C51" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52">
-        <f>ROW()-1</f>
-        <v>51</v>
-      </c>
-      <c r="C52" t="s">
-        <v>69</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53">
-        <f>ROW()-1</f>
-        <v>52</v>
-      </c>
-      <c r="C53" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54">
-        <f>ROW()-1</f>
-        <v>53</v>
-      </c>
-      <c r="C54" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>77</v>
-      </c>
-      <c r="B55">
-        <f>ROW()-1</f>
-        <v>54</v>
-      </c>
-      <c r="C55" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" t="s">
-        <v>77</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56">
-        <f>ROW()-1</f>
-        <v>55</v>
-      </c>
-      <c r="C56" t="s">
-        <v>110</v>
-      </c>
-      <c r="D56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>77</v>
-      </c>
-      <c r="B57">
-        <f>ROW()-1</f>
-        <v>56</v>
-      </c>
-      <c r="C57" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58">
-        <f>ROW()-1</f>
-        <v>57</v>
-      </c>
-      <c r="C58" t="s">
-        <v>73</v>
-      </c>
-      <c r="D58" t="s">
-        <v>62</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59">
-        <f>ROW()-1</f>
-        <v>58</v>
-      </c>
-      <c r="C59" t="s">
-        <v>118</v>
-      </c>
-      <c r="D59" t="s">
-        <v>62</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60">
-        <f>ROW()-1</f>
-        <v>59</v>
-      </c>
-      <c r="C60" t="s">
-        <v>119</v>
-      </c>
-      <c r="D60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61">
-        <f>ROW()-1</f>
-        <v>60</v>
-      </c>
-      <c r="C61" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" t="s">
-        <v>62</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62">
-        <f>ROW()-1</f>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B62" s="6">
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="C62" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" t="s">
-        <v>62</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63">
-        <f>ROW()-1</f>
-        <v>62</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="C62" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="6">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="6" t="s">
         <v>77</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64">
-        <f>ROW()-1</f>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="6">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>77</v>
-      </c>
-      <c r="B65">
-        <f>ROW()-1</f>
-        <v>64</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D65" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B66" s="6">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="9">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="6">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D65" t="s">
-        <v>62</v>
-      </c>
-      <c r="F65" s="3" t="s">
+      <c r="D68" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>77</v>
-      </c>
-      <c r="B66">
-        <f>ROW()-1</f>
-        <v>65</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="G68" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="9">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="6">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D66" t="s">
-        <v>62</v>
-      </c>
-      <c r="F66" s="4" t="s">
+      <c r="D70" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67">
-        <f>ROW()-1</f>
-        <v>66</v>
-      </c>
-      <c r="C67" t="s">
+    <row r="71" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="9">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="6">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B73" s="6">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B74" s="6">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B75" s="6">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A76" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="6">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68">
-        <f>ROW()-1</f>
-        <v>67</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D76" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A77" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="6">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D68" t="s">
-        <v>62</v>
-      </c>
-      <c r="F68" s="4" t="s">
+      <c r="D77" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69">
-        <f>ROW()-1</f>
-        <v>68</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="H77" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A78" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D69" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70">
-        <f>ROW()-1</f>
-        <v>69</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D78" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="9">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" s="11">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D70" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71">
-        <f>ROW()-1</f>
-        <v>70</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="D81" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" s="9">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" s="6">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72">
-        <f>ROW()-1</f>
-        <v>71</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D83" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" s="6">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D72" t="s">
-        <v>62</v>
-      </c>
-      <c r="F72" s="4" t="s">
+      <c r="D84" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73">
-        <f>ROW()-1</f>
-        <v>72</v>
-      </c>
-      <c r="C73" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" s="6">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D73" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74">
-        <f>ROW()-1</f>
-        <v>73</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D85" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" s="9">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="6">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D74" t="s">
-        <v>62</v>
-      </c>
-      <c r="F74" s="5" t="s">
+      <c r="D87" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>180</v>
       </c>
     </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B88" s="6">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B89" s="6">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" s="6">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:F75">
-    <sortCondition descending="1" ref="A1:A75"/>
-    <sortCondition ref="C1:C75"/>
+  <sortState ref="A1:H94">
+    <sortCondition ref="C1:C94"/>
+    <sortCondition ref="A1:A94"/>
   </sortState>
   <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.05" footer="0.05"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>

--- a/Baby App Pics and Sounds.xlsx
+++ b/Baby App Pics and Sounds.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="206">
   <si>
     <t xml:space="preserve">        Animals.Add(new Box("Anteater", "/Assets/Pics/Animals/anteater80x100.png", "/Assets/Pics/Animals/anteater480x800.png", "/Assets/Sounds/Animals/anteater.wav"));</t>
   </si>
@@ -640,13 +640,16 @@
   </si>
   <si>
     <t>no sound</t>
+  </si>
+  <si>
+    <t>zebra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,14 +687,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -713,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -740,13 +735,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3189,10 +3177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
@@ -3211,7 +3199,7 @@
         <v>185</v>
       </c>
       <c r="B1" s="6">
-        <f t="shared" ref="B1:B90" si="0">ROW()-1</f>
+        <f t="shared" ref="B1:B88" si="0">ROW()-1</f>
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -3332,18 +3320,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="15">
+    <row r="8" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="12">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="16"/>
+      <c r="D8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="13"/>
       <c r="F8" s="5" t="s">
         <v>202</v>
       </c>
@@ -3523,7 +3511,7 @@
       <c r="F17" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="11" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3826,7 +3814,7 @@
         <v>77</v>
       </c>
       <c r="B34" s="6">
-        <f t="shared" ref="B34:B63" si="2">ROW()-1</f>
+        <f t="shared" ref="B34:B62" si="2">ROW()-1</f>
         <v>33</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -4022,24 +4010,25 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="6">
+    <row r="45" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="9">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="8" t="s">
+      <c r="D45" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="9" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4253,50 +4242,51 @@
         <v>56</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="3" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="6" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B58" s="6">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" s="6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="9">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>171</v>
+      <c r="C59" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
@@ -4308,7 +4298,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>62</v>
@@ -4327,23 +4317,33 @@
         <v>60</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E61" s="10"/>
-      <c r="F61" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="B62" s="6">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>197</v>
+        <v>126</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
@@ -4351,20 +4351,20 @@
         <v>77</v>
       </c>
       <c r="B63" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>82</v>
+        <v>172</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
@@ -4376,117 +4376,115 @@
         <v>63</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G64" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B65" s="6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="9">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="6">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A65" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B65" s="6">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B66" s="6">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" s="9">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A68" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" s="6">
+    <row r="68" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" s="9">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="9">
+      <c r="C68" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="6">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A70" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" s="6">
+      <c r="C69" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="9">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>174</v>
+      <c r="C70" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
@@ -4498,39 +4496,37 @@
         <v>70</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E71" s="10"/>
+      <c r="E71" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="F71" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A72" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="6">
+        <v>176</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="9">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="C72" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B73" s="6">
@@ -4538,25 +4534,44 @@
         <v>72</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>76</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="B74" s="6">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B75" s="6">
+        <v>132</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B75" s="9">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>199</v>
+      <c r="C75" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
@@ -4568,87 +4583,84 @@
         <v>75</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A77" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" s="6">
+    <row r="77" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="9">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>62</v>
+      <c r="C77" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="6" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B78" s="6">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" s="9">
+        <v>62</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A79" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="6">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B80" s="11">
+      <c r="C79" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" s="9">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="C80" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="13" t="s">
+      <c r="C80" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
@@ -4660,29 +4672,28 @@
         <v>80</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B82" s="9">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" s="6">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="C82" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="3" t="s">
-        <v>164</v>
+      <c r="C82" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
@@ -4694,28 +4705,29 @@
         <v>82</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A84" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B84" s="6">
+    <row r="84" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" s="9">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>179</v>
+      <c r="C84" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
@@ -4727,10 +4739,13 @@
         <v>84</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>77</v>
+        <v>62</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.45">
@@ -4742,78 +4757,64 @@
         <v>85</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E86" s="10"/>
-      <c r="F86" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A87" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B87" s="6">
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" s="9">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B88" s="6">
+      <c r="C87" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" s="9">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A89" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B89" s="6">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A90" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" s="6">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="C90" s="6" t="s">
+      <c r="C88" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F90" s="8" t="s">
+      <c r="D88" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E88" s="10"/>
+      <c r="F88" s="3" t="s">
         <v>157</v>
       </c>
+    </row>
+    <row r="89" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A1:H94">

--- a/Baby App Pics and Sounds.xlsx
+++ b/Baby App Pics and Sounds.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="197">
   <si>
     <t xml:space="preserve">            Animals.Add(new Box("Badger", "/Assets/Pics/Animals/badger80x100.png", "/Assets/Pics/Animals/badger480x800.png", "/Assets/Sounds/Animals/badger.wav"));</t>
   </si>
@@ -586,6 +586,36 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>Raccoon, Rhino, Rooster, Seagull, Sheep, Turkey, Camel, Crocodile, Deer, Donkey, Lemur, Leopard, Llama, Polar bear, Elk (the background is causing it not to be displayed on the grid, is there something different about this background, maybe just a different pic)</t>
+  </si>
+  <si>
+    <t>Hi Kevin, We are getting to the finish line.  I promise!</t>
+  </si>
+  <si>
+    <t>There are some cartoon animals missing (i.e. we have the real animals but not the cartoon version)</t>
+  </si>
+  <si>
+    <t>Can you get cartoon pics for the 15 pics below:</t>
+  </si>
+  <si>
+    <t>Also there are some real animal pics we could use:</t>
+  </si>
+  <si>
+    <t>Chimpanzee, Cougar, Cow, Hawk, Crocodile (the pic we have is a crocodile on a rock but the croc is small, so hoping we could get a different croc pic).</t>
+  </si>
+  <si>
+    <t>For these we would also need the cartoon versions as well.</t>
+  </si>
+  <si>
+    <t>Thank you!</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
+    <t>p.s. This should be the end of pics for animals.</t>
   </si>
 </sst>
 </file>
@@ -958,7 +988,7 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="I9" sqref="I9:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
@@ -2606,135 +2636,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:B49"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>186</v>
+      </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>186</v>
+      </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>186</v>
+      </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>186</v>
+      </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>186</v>
+      </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -2742,7 +2780,7 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -2750,7 +2788,7 @@
         <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -2758,141 +2796,192 @@
         <v>45</v>
       </c>
       <c r="B27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>185</v>
+      </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>45</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>186</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>186</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>186</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>186</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>186</v>
-      </c>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>186</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
         <v>184</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A4:B49">
+    <sortCondition ref="A4:A49"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Baby App Pics and Sounds.xlsx
+++ b/Baby App Pics and Sounds.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="188">
   <si>
     <t xml:space="preserve">            Animals.Add(new Box("Badger", "/Assets/Pics/Animals/badger80x100.png", "/Assets/Pics/Animals/badger480x800.png", "/Assets/Sounds/Animals/badger.wav"));</t>
   </si>
@@ -586,33 +586,6 @@
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>Raccoon, Rhino, Rooster, Seagull, Sheep, Turkey, Camel, Crocodile, Deer, Donkey, Lemur, Leopard, Llama, Polar bear, Elk (the background is causing it not to be displayed on the grid, is there something different about this background, maybe just a different pic)</t>
-  </si>
-  <si>
-    <t>Hi Kevin, We are getting to the finish line.  I promise!</t>
-  </si>
-  <si>
-    <t>There are some cartoon animals missing (i.e. we have the real animals but not the cartoon version)</t>
-  </si>
-  <si>
-    <t>Can you get cartoon pics for the 15 pics below:</t>
-  </si>
-  <si>
-    <t>Also there are some real animal pics we could use:</t>
-  </si>
-  <si>
-    <t>Chimpanzee, Cougar, Cow, Hawk, Crocodile (the pic we have is a crocodile on a rock but the croc is small, so hoping we could get a different croc pic).</t>
-  </si>
-  <si>
-    <t>For these we would also need the cartoon versions as well.</t>
-  </si>
-  <si>
-    <t>Thank you!</t>
-  </si>
-  <si>
-    <t>Ted</t>
   </si>
   <si>
     <t>p.s. This should be the end of pics for animals.</t>
@@ -985,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I13"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
@@ -1002,7 +975,7 @@
     <col min="7" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>149</v>
       </c>
@@ -1020,7 +993,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -1039,7 +1012,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1058,7 +1031,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -1073,7 +1046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
@@ -1092,7 +1065,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -1113,7 +1086,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -1128,7 +1101,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B8" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1144,7 +1117,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>45</v>
       </c>
@@ -1161,11 +1134,8 @@
       <c r="F9" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
@@ -1179,11 +1149,8 @@
       <c r="D10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
@@ -1197,11 +1164,8 @@
       <c r="D11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -1219,14 +1183,8 @@
       <c r="F12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
@@ -1243,11 +1201,8 @@
       <c r="F13" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1265,7 +1220,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
@@ -1286,7 +1241,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -2639,68 +2594,35 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A4" sqref="A4:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>188</v>
-      </c>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>189</v>
-      </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>190</v>
-      </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>187</v>
-      </c>
-    </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>191</v>
-      </c>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>192</v>
-      </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>193</v>
-      </c>
       <c r="J9" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
